--- a/Fichas Casos de Uso.xlsx
+++ b/Fichas Casos de Uso.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25825"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="199" documentId="11_7D88C18622A6D266925031089C394FE368234159" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C09A4F7A-8352-4A08-8432-E2801F726C9C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017156DD-51D8-48C0-A46D-1E5C24290786}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28560" windowHeight="13905" xr2:uid="{A22C7B05-6B0A-4116-A99A-60EDDEA67682}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A22C7B05-6B0A-4116-A99A-60EDDEA67682}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -15,23 +15,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
   <si>
     <t>Nombre de Caso de uso</t>
   </si>
@@ -135,38 +124,59 @@
     <t>Si el repuesto no estaba registrado al momento de llenar los datos de la entrada</t>
   </si>
   <si>
-    <t>3.1.1</t>
-  </si>
-  <si>
     <t>Se hace clic en registrarnuevo repuesto</t>
   </si>
   <si>
-    <t>3.1.2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Se llena los datos del nuevo repuesto en el formulario </t>
   </si>
   <si>
-    <t>3.1.3</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Se da clic en guardar </t>
   </si>
   <si>
-    <t>3.1.4</t>
-  </si>
-  <si>
     <t>El sistema muestra de nuevo la vista para llenar la entrada de los repuestos</t>
   </si>
   <si>
     <t> El sistema redirecciona hacia la pagina de vista de entradas</t>
+  </si>
+  <si>
+    <t> Gestionar cambio Solicitud Agenda</t>
+  </si>
+  <si>
+    <t> En este caso de uso el administrador procede a desvincular una solicitud de la agenda de un tecnico</t>
+  </si>
+  <si>
+    <t>El tecnico debe haber hecho una solicitud o debe hacer un suceso que amerite el cambio de la solicitud a otra agenda</t>
+  </si>
+  <si>
+    <t>El Administrador entra a la vista de solicitudes desde el menu de administracion</t>
+  </si>
+  <si>
+    <t>Ingresar el numero de la solicitud en el buscador para filtrar</t>
+  </si>
+  <si>
+    <t>Hace clic en el boton cambiar agenda, lo que cambia el estado de la relacion con la agenda y se muestra un modal con las agendas disponibles</t>
+  </si>
+  <si>
+    <t>Se selecciona alguna de las agendas disponibles</t>
+  </si>
+  <si>
+    <t>Da clic en aceptar</t>
+  </si>
+  <si>
+    <t> El sistema notifica al tecnico de la nueva solicitud y se redireciona al administrador a la vista de solicitudes</t>
+  </si>
+  <si>
+    <t>No hay ninguna agenda disponible para el horario de esa solicitud</t>
+  </si>
+  <si>
+    <t>Se hace clic en poner el espera</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,15 +318,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -330,10 +331,19 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -353,7 +363,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -649,77 +659,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F274FABB-DF5C-4F9E-B98F-F8DC866DADF5}">
-  <dimension ref="B2:D41"/>
+  <dimension ref="B2:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:D23"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.85546875" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="54.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="28.5" customHeight="1">
+    <row r="2" spans="2:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8"/>
-    </row>
-    <row r="3" spans="2:4" ht="30.75" customHeight="1">
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="2:4" ht="29.25" customHeight="1">
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="2:4" ht="30.75" customHeight="1">
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="14"/>
-    </row>
-    <row r="6" spans="2:4" ht="29.25" customHeight="1">
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="14"/>
-    </row>
-    <row r="7" spans="2:4" ht="24.75" customHeight="1">
-      <c r="B7" s="9" t="s">
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="28.5" customHeight="1">
-      <c r="B8" s="9"/>
+    <row r="8" spans="2:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
       <c r="C8" s="4">
         <v>1</v>
       </c>
@@ -727,8 +737,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="27" customHeight="1">
-      <c r="B9" s="9"/>
+    <row r="9" spans="2:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
       <c r="C9" s="4">
         <v>2</v>
       </c>
@@ -736,8 +746,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="30.75" customHeight="1">
-      <c r="B10" s="9"/>
+    <row r="10" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
       <c r="C10" s="4">
         <v>3</v>
       </c>
@@ -745,8 +755,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="27" customHeight="1">
-      <c r="B11" s="9"/>
+    <row r="11" spans="2:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="6"/>
       <c r="C11" s="4">
         <v>4</v>
       </c>
@@ -754,8 +764,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="31.5" customHeight="1">
-      <c r="B12" s="9"/>
+    <row r="12" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="6"/>
       <c r="C12" s="4">
         <v>5</v>
       </c>
@@ -763,8 +773,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="26.25" customHeight="1">
-      <c r="B13" s="10"/>
+    <row r="13" spans="2:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
       <c r="C13" s="4">
         <v>6</v>
       </c>
@@ -772,8 +782,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="26.25" customHeight="1">
-      <c r="B14" s="9" t="s">
+    <row r="14" spans="2:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="4">
@@ -783,8 +793,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="25.5" customHeight="1">
-      <c r="B15" s="9"/>
+    <row r="15" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="6"/>
       <c r="C15" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -792,8 +802,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="30.75" customHeight="1">
-      <c r="B16" s="9"/>
+    <row r="16" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
       <c r="C16" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -801,8 +811,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="27.75" customHeight="1">
-      <c r="B17" s="9"/>
+    <row r="17" spans="2:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
       <c r="C17" s="4">
         <v>4</v>
       </c>
@@ -810,8 +820,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="25.5" customHeight="1">
-      <c r="B18" s="9"/>
+    <row r="18" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
       <c r="C18" s="4">
         <v>5</v>
       </c>
@@ -819,8 +829,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="27" customHeight="1">
-      <c r="B19" s="10"/>
+    <row r="19" spans="2:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="7"/>
       <c r="C19" s="4">
         <v>6</v>
       </c>
@@ -828,73 +838,73 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="31.5" customHeight="1">
+    <row r="20" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="12"/>
-    </row>
-    <row r="23" spans="2:4">
+      <c r="D20" s="9"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="2:4">
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25" spans="2:4">
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="8"/>
-    </row>
-    <row r="26" spans="2:4" ht="31.5" customHeight="1">
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="14"/>
-    </row>
-    <row r="27" spans="2:4" ht="36.75" customHeight="1">
+      <c r="D26" s="13"/>
+    </row>
+    <row r="27" spans="2:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="14"/>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="9" t="s">
+      <c r="D27" s="13"/>
+    </row>
+    <row r="28" spans="2:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="9"/>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="6"/>
       <c r="C29" s="4">
         <v>1</v>
       </c>
@@ -902,8 +912,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="30.75">
-      <c r="B30" s="9"/>
+    <row r="30" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30" s="6"/>
       <c r="C30" s="4">
         <v>2</v>
       </c>
@@ -911,8 +921,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="32.25" customHeight="1">
-      <c r="B31" s="9"/>
+    <row r="31" spans="2:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="6"/>
       <c r="C31" s="4">
         <v>3</v>
       </c>
@@ -920,8 +930,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="28.5" customHeight="1">
-      <c r="B32" s="9"/>
+    <row r="32" spans="2:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="6"/>
       <c r="C32" s="4">
         <v>4</v>
       </c>
@@ -929,22 +939,22 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="9"/>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="6"/>
       <c r="C33" s="4">
         <v>5</v>
       </c>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="10"/>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="7"/>
       <c r="C34" s="4">
         <v>6</v>
       </c>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="2:4" ht="31.5" customHeight="1">
-      <c r="B35" s="9" t="s">
+    <row r="35" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C35" s="4">
@@ -954,44 +964,44 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="29.25" customHeight="1">
-      <c r="B36" s="9"/>
-      <c r="C36" s="4" t="s">
+    <row r="36" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="6"/>
+      <c r="C36" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="5" t="s">
+    </row>
+    <row r="37" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="6"/>
+      <c r="C37" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="21.75" customHeight="1">
-      <c r="B37" s="9"/>
-      <c r="C37" s="4" t="s">
+    <row r="38" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="6"/>
+      <c r="C38" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="5" t="s">
+    </row>
+    <row r="39" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B39" s="6"/>
+      <c r="C39" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="25.5" customHeight="1">
-      <c r="B38" s="9"/>
-      <c r="C38" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" ht="30.75">
-      <c r="B39" s="9"/>
-      <c r="C39" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40" s="10"/>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="7"/>
       <c r="C40" s="4">
         <v>6</v>
       </c>
@@ -999,17 +1009,194 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="2:4">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="9"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="11"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="11"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="11"/>
+    </row>
+    <row r="46" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="13"/>
+    </row>
+    <row r="47" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" s="13"/>
+    </row>
+    <row r="48" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="6"/>
+      <c r="C49" s="4">
+        <v>1</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D41" s="12"/>
+    </row>
+    <row r="50" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B50" s="6"/>
+      <c r="C50" s="4">
+        <v>2</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B51" s="6"/>
+      <c r="C51" s="4">
+        <v>3</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="6"/>
+      <c r="C52" s="4">
+        <v>4</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="6"/>
+      <c r="C53" s="4">
+        <v>5</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="7"/>
+      <c r="C54" s="4">
+        <v>6</v>
+      </c>
+      <c r="D54" s="5"/>
+    </row>
+    <row r="55" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B55" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="6"/>
+      <c r="C56" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="6"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="5"/>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="6"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="5"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="6"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="5"/>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="7"/>
+      <c r="C60" s="4">
+        <v>6</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D61" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="24">
+    <mergeCell ref="B48:B54"/>
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B7:B13"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="B28:B34"/>
     <mergeCell ref="B35:B40"/>
     <mergeCell ref="C41:D41"/>
@@ -1018,14 +1205,6 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B7:B13"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Fichas Casos de Uso.xlsx
+++ b/Fichas Casos de Uso.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017156DD-51D8-48C0-A46D-1E5C24290786}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C7AD09-FA8A-4C98-9368-20E58F46E280}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A22C7B05-6B0A-4116-A99A-60EDDEA67682}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="60">
   <si>
     <t>Nombre de Caso de uso</t>
   </si>
@@ -139,15 +139,9 @@
     <t> El sistema redirecciona hacia la pagina de vista de entradas</t>
   </si>
   <si>
-    <t> Gestionar cambio Solicitud Agenda</t>
-  </si>
-  <si>
     <t> En este caso de uso el administrador procede a desvincular una solicitud de la agenda de un tecnico</t>
   </si>
   <si>
-    <t>El tecnico debe haber hecho una solicitud o debe hacer un suceso que amerite el cambio de la solicitud a otra agenda</t>
-  </si>
-  <si>
     <t>El Administrador entra a la vista de solicitudes desde el menu de administracion</t>
   </si>
   <si>
@@ -170,6 +164,42 @@
   </si>
   <si>
     <t>Se hace clic en poner el espera</t>
+  </si>
+  <si>
+    <t>Ingresa a la solicitud deseada aprentado sobre ella, lo que abrira un ventana con los datos de la solicitud</t>
+  </si>
+  <si>
+    <t>Hace clic en el boton editar hora solicitud, lo que permite cambiar la hora, turno de la solicitud</t>
+  </si>
+  <si>
+    <t>Selecciona el nuevo turno y hora y hace clic en aplicar cambios</t>
+  </si>
+  <si>
+    <t> Gestionar Tecnicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> En este caso de uso el administrador procede a crear la cuenta de usuario en el sistema para un tecnico </t>
+  </si>
+  <si>
+    <t>El tecnico debe haber pasado los requisitos solicitados por la empresa</t>
+  </si>
+  <si>
+    <t>El Administrador entra a su perfil,  desde donde hace clic en nuevo tecnico</t>
+  </si>
+  <si>
+    <t>Llena los datos del tecnico en el formulario mostrado</t>
+  </si>
+  <si>
+    <t>Da clic en aceptar, lo que actualiza la tabla de tecnicos y datos que se muestran el el front</t>
+  </si>
+  <si>
+    <t> El sistema envia un correo a la direccion de correo con el que se registro al tecnico, con sus datos de usuario y contraseña</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gestionar  Solicitudes </t>
+  </si>
+  <si>
+    <t>El tecnico debe haber hecho una solicitud o debe hacer un motivo que amerite el cambio de la solicitud a otra agenda</t>
   </si>
 </sst>
 </file>
@@ -305,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -318,6 +348,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -325,10 +358,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -337,13 +370,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -659,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F274FABB-DF5C-4F9E-B98F-F8DC866DADF5}">
-  <dimension ref="B2:D61"/>
+  <dimension ref="B2:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,60 +710,60 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="12"/>
     </row>
     <row r="4" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="4">
         <v>1</v>
       </c>
@@ -738,7 +772,7 @@
       </c>
     </row>
     <row r="9" spans="2:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="4">
         <v>2</v>
       </c>
@@ -747,7 +781,7 @@
       </c>
     </row>
     <row r="10" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="4">
         <v>3</v>
       </c>
@@ -756,7 +790,7 @@
       </c>
     </row>
     <row r="11" spans="2:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="4">
         <v>4</v>
       </c>
@@ -765,7 +799,7 @@
       </c>
     </row>
     <row r="12" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="4">
         <v>5</v>
       </c>
@@ -774,7 +808,7 @@
       </c>
     </row>
     <row r="13" spans="2:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="4">
         <v>6</v>
       </c>
@@ -783,7 +817,7 @@
       </c>
     </row>
     <row r="14" spans="2:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="4">
@@ -794,7 +828,7 @@
       </c>
     </row>
     <row r="15" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -803,7 +837,7 @@
       </c>
     </row>
     <row r="16" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -812,7 +846,7 @@
       </c>
     </row>
     <row r="17" spans="2:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="4">
         <v>4</v>
       </c>
@@ -821,7 +855,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
+      <c r="B18" s="7"/>
       <c r="C18" s="4">
         <v>5</v>
       </c>
@@ -830,7 +864,7 @@
       </c>
     </row>
     <row r="19" spans="2:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="4">
         <v>6</v>
       </c>
@@ -842,69 +876,69 @@
       <c r="B20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="9"/>
+      <c r="D20" s="14"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="11"/>
+      <c r="D23" s="12"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="11"/>
+      <c r="D24" s="12"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="11"/>
+      <c r="D25" s="12"/>
     </row>
     <row r="26" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="13"/>
+      <c r="D26" s="10"/>
     </row>
     <row r="27" spans="2:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="13"/>
+      <c r="D27" s="10"/>
     </row>
     <row r="28" spans="2:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="6"/>
+      <c r="B29" s="7"/>
       <c r="C29" s="4">
         <v>1</v>
       </c>
@@ -913,7 +947,7 @@
       </c>
     </row>
     <row r="30" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B30" s="6"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="4">
         <v>2</v>
       </c>
@@ -922,7 +956,7 @@
       </c>
     </row>
     <row r="31" spans="2:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="6"/>
+      <c r="B31" s="7"/>
       <c r="C31" s="4">
         <v>3</v>
       </c>
@@ -931,7 +965,7 @@
       </c>
     </row>
     <row r="32" spans="2:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="6"/>
+      <c r="B32" s="7"/>
       <c r="C32" s="4">
         <v>4</v>
       </c>
@@ -940,21 +974,21 @@
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="6"/>
+      <c r="B33" s="7"/>
       <c r="C33" s="4">
         <v>5</v>
       </c>
       <c r="D33" s="5"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="7"/>
+      <c r="B34" s="8"/>
       <c r="C34" s="4">
         <v>6</v>
       </c>
       <c r="D34" s="5"/>
     </row>
     <row r="35" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C35" s="4">
@@ -965,7 +999,7 @@
       </c>
     </row>
     <row r="36" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="6"/>
+      <c r="B36" s="7"/>
       <c r="C36" s="4">
         <v>3.2</v>
       </c>
@@ -974,7 +1008,7 @@
       </c>
     </row>
     <row r="37" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="6"/>
+      <c r="B37" s="7"/>
       <c r="C37" s="4">
         <v>3.3</v>
       </c>
@@ -983,7 +1017,7 @@
       </c>
     </row>
     <row r="38" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="6"/>
+      <c r="B38" s="7"/>
       <c r="C38" s="4">
         <v>3.4</v>
       </c>
@@ -992,7 +1026,7 @@
       </c>
     </row>
     <row r="39" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B39" s="6"/>
+      <c r="B39" s="7"/>
       <c r="C39" s="4">
         <v>3.5</v>
       </c>
@@ -1001,7 +1035,7 @@
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="7"/>
+      <c r="B40" s="8"/>
       <c r="C40" s="4">
         <v>6</v>
       </c>
@@ -1013,182 +1047,354 @@
       <c r="B41" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="9"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
+      <c r="D41" s="14"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="15"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" s="11"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44" s="11"/>
+      <c r="C44" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="12"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="12"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C46" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="11"/>
-    </row>
-    <row r="46" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="2" t="s">
+      <c r="D46" s="12"/>
+    </row>
+    <row r="47" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C47" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" s="10"/>
+    </row>
+    <row r="48" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="10"/>
+    </row>
+    <row r="49" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="7"/>
+      <c r="C50" s="4">
+        <v>1</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D46" s="13"/>
-    </row>
-    <row r="47" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="12" t="s">
+    </row>
+    <row r="51" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B51" s="7"/>
+      <c r="C51" s="4">
+        <v>2</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D47" s="13"/>
-    </row>
-    <row r="48" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="6"/>
-      <c r="C49" s="4">
-        <v>1</v>
-      </c>
-      <c r="D49" s="5" t="s">
+    </row>
+    <row r="52" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B52" s="7"/>
+      <c r="C52" s="4">
+        <v>3</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B53" s="7"/>
+      <c r="C53" s="4">
+        <v>4</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B50" s="6"/>
-      <c r="C50" s="4">
-        <v>2</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B51" s="6"/>
-      <c r="C51" s="4">
-        <v>3</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="6"/>
-      <c r="C52" s="4">
-        <v>4</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="6"/>
-      <c r="C53" s="4">
-        <v>5</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="7"/>
       <c r="C54" s="4">
+        <v>5</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="8"/>
+      <c r="C55" s="4">
         <v>6</v>
       </c>
-      <c r="D54" s="5"/>
-    </row>
-    <row r="55" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B55" s="6" t="s">
+      <c r="D55" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B56" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C56" s="4">
         <v>4.0999999999999996</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="6"/>
-      <c r="C56" s="4">
-        <v>4.2</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57" s="6"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="5"/>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="6"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="5"/>
+    <row r="57" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B57" s="7"/>
+      <c r="C57" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B58" s="7"/>
+      <c r="C58" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="6"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="5"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="7"/>
-      <c r="C60" s="4">
+      <c r="C60" s="4"/>
+      <c r="D60" s="5"/>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="8"/>
+      <c r="C61" s="4">
         <v>6</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D61" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="2:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="2" t="s">
+    <row r="62" spans="2:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D61" s="13"/>
+      <c r="C62" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D62" s="10"/>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D65" s="12"/>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="12"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="12"/>
+    </row>
+    <row r="68" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D68" s="10"/>
+    </row>
+    <row r="69" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D69" s="10"/>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B71" s="7"/>
+      <c r="C71" s="4">
+        <v>1</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="7"/>
+      <c r="C72" s="4">
+        <v>2</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B73" s="7"/>
+      <c r="C73" s="4">
+        <v>3</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" s="7"/>
+      <c r="C74" s="4">
+        <v>4</v>
+      </c>
+      <c r="D74" s="5"/>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" s="7"/>
+      <c r="C75" s="4">
+        <v>5</v>
+      </c>
+      <c r="D75" s="5"/>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" s="8"/>
+      <c r="C76" s="4">
+        <v>6</v>
+      </c>
+      <c r="D76" s="5"/>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" s="4"/>
+      <c r="D77" s="5"/>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78" s="7"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="5"/>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79" s="7"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="5"/>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" s="7"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="5"/>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" s="7"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="5"/>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" s="8"/>
+      <c r="C82" s="4">
+        <v>6</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D83" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="B48:B54"/>
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
+  <mergeCells count="32">
+    <mergeCell ref="B70:B76"/>
+    <mergeCell ref="B77:B82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="B28:B34"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="B7:B13"/>
@@ -1197,14 +1403,14 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B28:B34"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="B49:B55"/>
+    <mergeCell ref="B56:B61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Fichas Casos de Uso.xlsx
+++ b/Fichas Casos de Uso.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C7AD09-FA8A-4C98-9368-20E58F46E280}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A932543-C2A6-4D2E-ABDD-7B86953B97CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A22C7B05-6B0A-4116-A99A-60EDDEA67682}"/>
   </bookViews>
@@ -178,9 +178,6 @@
     <t> Gestionar Tecnicos</t>
   </si>
   <si>
-    <t xml:space="preserve"> En este caso de uso el administrador procede a crear la cuenta de usuario en el sistema para un tecnico </t>
-  </si>
-  <si>
     <t>El tecnico debe haber pasado los requisitos solicitados por la empresa</t>
   </si>
   <si>
@@ -200,6 +197,9 @@
   </si>
   <si>
     <t>El tecnico debe haber hecho una solicitud o debe hacer un motivo que amerite el cambio de la solicitud a otra agenda</t>
+  </si>
+  <si>
+    <t> En este caso de uso el administrador procede a registrar y crear la cuenta de usuario de un tecnico en el sistema</t>
   </si>
 </sst>
 </file>
@@ -351,6 +351,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -373,10 +377,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -695,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F274FABB-DF5C-4F9E-B98F-F8DC866DADF5}">
   <dimension ref="B2:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65:D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,49 +710,49 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -763,7 +763,7 @@
       </c>
     </row>
     <row r="8" spans="2:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="4">
         <v>1</v>
       </c>
@@ -772,7 +772,7 @@
       </c>
     </row>
     <row r="9" spans="2:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="4">
         <v>2</v>
       </c>
@@ -781,7 +781,7 @@
       </c>
     </row>
     <row r="10" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="4">
         <v>3</v>
       </c>
@@ -790,7 +790,7 @@
       </c>
     </row>
     <row r="11" spans="2:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="4">
         <v>4</v>
       </c>
@@ -799,7 +799,7 @@
       </c>
     </row>
     <row r="12" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="4">
         <v>5</v>
       </c>
@@ -808,7 +808,7 @@
       </c>
     </row>
     <row r="13" spans="2:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="4">
         <v>6</v>
       </c>
@@ -817,7 +817,7 @@
       </c>
     </row>
     <row r="14" spans="2:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="4">
@@ -828,7 +828,7 @@
       </c>
     </row>
     <row r="15" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -837,7 +837,7 @@
       </c>
     </row>
     <row r="16" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -846,7 +846,7 @@
       </c>
     </row>
     <row r="17" spans="2:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="4">
         <v>4</v>
       </c>
@@ -855,7 +855,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="4">
         <v>5</v>
       </c>
@@ -864,7 +864,7 @@
       </c>
     </row>
     <row r="19" spans="2:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="4">
         <v>6</v>
       </c>
@@ -876,58 +876,58 @@
       <c r="B20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="14"/>
+      <c r="D20" s="16"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="12"/>
+      <c r="D23" s="14"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="12"/>
+      <c r="D24" s="14"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="12"/>
+      <c r="D25" s="14"/>
     </row>
     <row r="26" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="10"/>
+      <c r="D26" s="12"/>
     </row>
     <row r="27" spans="2:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="10"/>
+      <c r="D27" s="12"/>
     </row>
     <row r="28" spans="2:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -938,7 +938,7 @@
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="7"/>
+      <c r="B29" s="9"/>
       <c r="C29" s="4">
         <v>1</v>
       </c>
@@ -947,7 +947,7 @@
       </c>
     </row>
     <row r="30" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B30" s="7"/>
+      <c r="B30" s="9"/>
       <c r="C30" s="4">
         <v>2</v>
       </c>
@@ -956,7 +956,7 @@
       </c>
     </row>
     <row r="31" spans="2:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="7"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="4">
         <v>3</v>
       </c>
@@ -965,7 +965,7 @@
       </c>
     </row>
     <row r="32" spans="2:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="7"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="4">
         <v>4</v>
       </c>
@@ -974,21 +974,21 @@
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="7"/>
+      <c r="B33" s="9"/>
       <c r="C33" s="4">
         <v>5</v>
       </c>
       <c r="D33" s="5"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="8"/>
+      <c r="B34" s="10"/>
       <c r="C34" s="4">
         <v>6</v>
       </c>
       <c r="D34" s="5"/>
     </row>
     <row r="35" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C35" s="4">
@@ -999,7 +999,7 @@
       </c>
     </row>
     <row r="36" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="7"/>
+      <c r="B36" s="9"/>
       <c r="C36" s="4">
         <v>3.2</v>
       </c>
@@ -1008,7 +1008,7 @@
       </c>
     </row>
     <row r="37" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="7"/>
+      <c r="B37" s="9"/>
       <c r="C37" s="4">
         <v>3.3</v>
       </c>
@@ -1017,7 +1017,7 @@
       </c>
     </row>
     <row r="38" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="7"/>
+      <c r="B38" s="9"/>
       <c r="C38" s="4">
         <v>3.4</v>
       </c>
@@ -1026,7 +1026,7 @@
       </c>
     </row>
     <row r="39" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B39" s="7"/>
+      <c r="B39" s="9"/>
       <c r="C39" s="4">
         <v>3.5</v>
       </c>
@@ -1035,7 +1035,7 @@
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="8"/>
+      <c r="B40" s="10"/>
       <c r="C40" s="4">
         <v>6</v>
       </c>
@@ -1047,63 +1047,63 @@
       <c r="B41" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="14"/>
+      <c r="D41" s="16"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="15"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D44" s="12"/>
+      <c r="C44" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" s="14"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D45" s="12"/>
+      <c r="D45" s="14"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D46" s="12"/>
+      <c r="D46" s="14"/>
     </row>
     <row r="47" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D47" s="10"/>
+      <c r="D47" s="12"/>
     </row>
     <row r="48" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D48" s="10"/>
+      <c r="C48" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="12"/>
     </row>
     <row r="49" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -1114,7 +1114,7 @@
       </c>
     </row>
     <row r="50" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="7"/>
+      <c r="B50" s="9"/>
       <c r="C50" s="4">
         <v>1</v>
       </c>
@@ -1123,7 +1123,7 @@
       </c>
     </row>
     <row r="51" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B51" s="7"/>
+      <c r="B51" s="9"/>
       <c r="C51" s="4">
         <v>2</v>
       </c>
@@ -1132,7 +1132,7 @@
       </c>
     </row>
     <row r="52" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B52" s="7"/>
+      <c r="B52" s="9"/>
       <c r="C52" s="4">
         <v>3</v>
       </c>
@@ -1141,7 +1141,7 @@
       </c>
     </row>
     <row r="53" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B53" s="7"/>
+      <c r="B53" s="9"/>
       <c r="C53" s="4">
         <v>4</v>
       </c>
@@ -1150,7 +1150,7 @@
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="7"/>
+      <c r="B54" s="9"/>
       <c r="C54" s="4">
         <v>5</v>
       </c>
@@ -1159,7 +1159,7 @@
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="8"/>
+      <c r="B55" s="10"/>
       <c r="C55" s="4">
         <v>6</v>
       </c>
@@ -1168,7 +1168,7 @@
       </c>
     </row>
     <row r="56" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C56" s="4">
@@ -1179,7 +1179,7 @@
       </c>
     </row>
     <row r="57" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B57" s="7"/>
+      <c r="B57" s="9"/>
       <c r="C57" s="4">
         <v>4.2</v>
       </c>
@@ -1188,7 +1188,7 @@
       </c>
     </row>
     <row r="58" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B58" s="7"/>
+      <c r="B58" s="9"/>
       <c r="C58" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -1197,7 +1197,7 @@
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="7"/>
+      <c r="B59" s="9"/>
       <c r="C59" s="4">
         <v>5.2</v>
       </c>
@@ -1206,12 +1206,12 @@
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B60" s="7"/>
+      <c r="B60" s="9"/>
       <c r="C60" s="4"/>
       <c r="D60" s="5"/>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B61" s="8"/>
+      <c r="B61" s="10"/>
       <c r="C61" s="4">
         <v>6</v>
       </c>
@@ -1223,58 +1223,58 @@
       <c r="B62" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D62" s="10"/>
+      <c r="D62" s="12"/>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C65" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D65" s="12"/>
+      <c r="D65" s="14"/>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C66" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D66" s="12"/>
+      <c r="D66" s="14"/>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C67" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D67" s="12"/>
+      <c r="D67" s="14"/>
     </row>
     <row r="68" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C68" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D68" s="10"/>
+      <c r="C68" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D68" s="12"/>
     </row>
     <row r="69" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C69" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D69" s="10"/>
+      <c r="C69" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D69" s="12"/>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C70" s="3" t="s">
@@ -1285,82 +1285,82 @@
       </c>
     </row>
     <row r="71" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B71" s="7"/>
+      <c r="B71" s="9"/>
       <c r="C71" s="4">
         <v>1</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B72" s="7"/>
+      <c r="B72" s="9"/>
       <c r="C72" s="4">
         <v>2</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B73" s="7"/>
+      <c r="B73" s="9"/>
       <c r="C73" s="4">
         <v>3</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B74" s="7"/>
+      <c r="B74" s="9"/>
       <c r="C74" s="4">
         <v>4</v>
       </c>
       <c r="D74" s="5"/>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B75" s="7"/>
+      <c r="B75" s="9"/>
       <c r="C75" s="4">
         <v>5</v>
       </c>
       <c r="D75" s="5"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B76" s="8"/>
+      <c r="B76" s="10"/>
       <c r="C76" s="4">
         <v>6</v>
       </c>
       <c r="D76" s="5"/>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="5"/>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B78" s="7"/>
+      <c r="B78" s="9"/>
       <c r="C78" s="4"/>
       <c r="D78" s="5"/>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B79" s="7"/>
+      <c r="B79" s="9"/>
       <c r="C79" s="4"/>
       <c r="D79" s="5"/>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B80" s="7"/>
+      <c r="B80" s="9"/>
       <c r="C80" s="4"/>
       <c r="D80" s="5"/>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B81" s="7"/>
+      <c r="B81" s="9"/>
       <c r="C81" s="4"/>
       <c r="D81" s="5"/>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B82" s="8"/>
+      <c r="B82" s="10"/>
       <c r="C82" s="4">
         <v>6</v>
       </c>
@@ -1372,13 +1372,37 @@
       <c r="B83" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C83" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D83" s="10"/>
+      <c r="C83" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D83" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B49:B55"/>
+    <mergeCell ref="B56:B61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B7:B13"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B28:B34"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="B70:B76"/>
     <mergeCell ref="B77:B82"/>
     <mergeCell ref="C83:D83"/>
@@ -1387,30 +1411,6 @@
     <mergeCell ref="C67:D67"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="C69:D69"/>
-    <mergeCell ref="B28:B34"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B7:B13"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B49:B55"/>
-    <mergeCell ref="B56:B61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Fichas Casos de Uso.xlsx
+++ b/Fichas Casos de Uso.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A932543-C2A6-4D2E-ABDD-7B86953B97CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFC76FF-50C2-4709-A105-B6B61D095E5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A22C7B05-6B0A-4116-A99A-60EDDEA67682}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="70">
   <si>
     <t>Nombre de Caso de uso</t>
   </si>
@@ -181,9 +181,6 @@
     <t>El tecnico debe haber pasado los requisitos solicitados por la empresa</t>
   </si>
   <si>
-    <t>El Administrador entra a su perfil,  desde donde hace clic en nuevo tecnico</t>
-  </si>
-  <si>
     <t>Llena los datos del tecnico en el formulario mostrado</t>
   </si>
   <si>
@@ -200,6 +197,39 @@
   </si>
   <si>
     <t> En este caso de uso el administrador procede a registrar y crear la cuenta de usuario de un tecnico en el sistema</t>
+  </si>
+  <si>
+    <t>Asignar un turno al tecnico</t>
+  </si>
+  <si>
+    <t> En este caso de uso el administrador procede a cambiar de turno a un tecnico</t>
+  </si>
+  <si>
+    <t>El tecnico debe haber solicitado el cambio de turno desde su perfil</t>
+  </si>
+  <si>
+    <t>El Administrador debe entrar a la vista de tecnicos en el menu administrativo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hace clic en nuevo tecnico</t>
+  </si>
+  <si>
+    <t>Buscar al tecnico y seleccionarlo</t>
+  </si>
+  <si>
+    <t>En la vista del perfil del tecnico, hace clic en el boton cambiar turno</t>
+  </si>
+  <si>
+    <t>Seleccionar el nuevo turno en el desplegable con los turnos disponibles</t>
+  </si>
+  <si>
+    <t>Dar clic en acertar</t>
+  </si>
+  <si>
+    <t> 002</t>
+  </si>
+  <si>
+    <t>Se actualiza la relación del tecnico con el turno y se envia una notificación por correo al tecnico sobre los cambios realizados</t>
   </si>
 </sst>
 </file>
@@ -693,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F274FABB-DF5C-4F9E-B98F-F8DC866DADF5}">
-  <dimension ref="B2:D83"/>
+  <dimension ref="B2:D104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65:D65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89:D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D44" s="14"/>
     </row>
@@ -1098,7 +1128,7 @@
         <v>8</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D48" s="12"/>
     </row>
@@ -1260,7 +1290,7 @@
         <v>6</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D68" s="12"/>
     </row>
@@ -1290,7 +1320,7 @@
         <v>1</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
@@ -1299,16 +1329,16 @@
         <v>2</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" s="9"/>
       <c r="C73" s="4">
         <v>3</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
@@ -1316,14 +1346,18 @@
       <c r="C74" s="4">
         <v>4</v>
       </c>
-      <c r="D74" s="5"/>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D74" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B75" s="9"/>
       <c r="C75" s="4">
         <v>5</v>
       </c>
-      <c r="D75" s="5"/>
+      <c r="D75" s="5" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" s="10"/>
@@ -1373,12 +1407,165 @@
         <v>24</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D83" s="12"/>
     </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D86" s="14"/>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" s="14"/>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" s="14"/>
+    </row>
+    <row r="89" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D89" s="12"/>
+    </row>
+    <row r="90" spans="2:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D90" s="12"/>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B92" s="9"/>
+      <c r="C92" s="4">
+        <v>1</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93" s="9"/>
+      <c r="C93" s="4">
+        <v>2</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B94" s="9"/>
+      <c r="C94" s="4">
+        <v>3</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B95" s="9"/>
+      <c r="C95" s="4">
+        <v>4</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B96" s="9"/>
+      <c r="C96" s="4">
+        <v>5</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97" s="10"/>
+      <c r="C97" s="4">
+        <v>6</v>
+      </c>
+      <c r="D97" s="5"/>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C98" s="4"/>
+      <c r="D98" s="5"/>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99" s="9"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="5"/>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B100" s="9"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="5"/>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B101" s="9"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="5"/>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B102" s="9"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="5"/>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B103" s="10"/>
+      <c r="C103" s="4">
+        <v>6</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D104" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="40">
     <mergeCell ref="B49:B55"/>
     <mergeCell ref="B56:B61"/>
     <mergeCell ref="C62:D62"/>
@@ -1411,6 +1598,14 @@
     <mergeCell ref="C67:D67"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="C69:D69"/>
+    <mergeCell ref="B91:B97"/>
+    <mergeCell ref="B98:B103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Fichas Casos de Uso.xlsx
+++ b/Fichas Casos de Uso.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFC76FF-50C2-4709-A105-B6B61D095E5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A57F7E2-2FD7-4AFB-A370-6F12C92B9CE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A22C7B05-6B0A-4116-A99A-60EDDEA67682}"/>
   </bookViews>
@@ -175,9 +175,6 @@
     <t>Selecciona el nuevo turno y hora y hace clic en aplicar cambios</t>
   </si>
   <si>
-    <t> Gestionar Tecnicos</t>
-  </si>
-  <si>
     <t>El tecnico debe haber pasado los requisitos solicitados por la empresa</t>
   </si>
   <si>
@@ -226,10 +223,13 @@
     <t>Dar clic en acertar</t>
   </si>
   <si>
-    <t> 002</t>
-  </si>
-  <si>
     <t>Se actualiza la relación del tecnico con el turno y se envia una notificación por correo al tecnico sobre los cambios realizados</t>
+  </si>
+  <si>
+    <t> Registrar Tecnico</t>
+  </si>
+  <si>
+    <t> Cambiar turno</t>
   </si>
 </sst>
 </file>
@@ -725,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F274FABB-DF5C-4F9E-B98F-F8DC866DADF5}">
   <dimension ref="B2:D104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89:D89"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1092,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D44" s="14"/>
     </row>
@@ -1128,7 +1128,7 @@
         <v>8</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D48" s="12"/>
     </row>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D65" s="14"/>
     </row>
@@ -1290,7 +1290,7 @@
         <v>6</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D68" s="12"/>
     </row>
@@ -1299,7 +1299,7 @@
         <v>8</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D69" s="12"/>
     </row>
@@ -1320,7 +1320,7 @@
         <v>1</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
@@ -1329,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
@@ -1338,7 +1338,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
@@ -1347,7 +1347,7 @@
         <v>4</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="2:4" ht="30" x14ac:dyDescent="0.25">
@@ -1356,7 +1356,7 @@
         <v>5</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
@@ -1407,7 +1407,7 @@
         <v>24</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D83" s="12"/>
     </row>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="D86" s="14"/>
     </row>
@@ -1425,7 +1425,7 @@
         <v>2</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="D87" s="14"/>
     </row>
@@ -1443,7 +1443,7 @@
         <v>6</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D89" s="12"/>
     </row>
@@ -1452,7 +1452,7 @@
         <v>8</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D90" s="12"/>
     </row>
@@ -1473,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
@@ -1482,7 +1482,7 @@
         <v>2</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="94" spans="2:4" ht="30" x14ac:dyDescent="0.25">
@@ -1491,7 +1491,7 @@
         <v>3</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="95" spans="2:4" ht="30" x14ac:dyDescent="0.25">
@@ -1500,7 +1500,7 @@
         <v>4</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
@@ -1509,7 +1509,7 @@
         <v>5</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
@@ -1560,12 +1560,44 @@
         <v>24</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D104" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="B91:B97"/>
+    <mergeCell ref="B98:B103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="B70:B76"/>
+    <mergeCell ref="B77:B82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="B28:B34"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B7:B13"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="B49:B55"/>
     <mergeCell ref="B56:B61"/>
     <mergeCell ref="C62:D62"/>
@@ -1574,38 +1606,6 @@
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B7:B13"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B28:B34"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="B70:B76"/>
-    <mergeCell ref="B77:B82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="B91:B97"/>
-    <mergeCell ref="B98:B103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Fichas Casos de Uso.xlsx
+++ b/Fichas Casos de Uso.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A57F7E2-2FD7-4AFB-A370-6F12C92B9CE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764019ED-A7A0-4EA4-AE43-F50A2973BDA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A22C7B05-6B0A-4116-A99A-60EDDEA67682}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="86">
   <si>
     <t>Nombre de Caso de uso</t>
   </si>
@@ -230,6 +230,54 @@
   </si>
   <si>
     <t> Cambiar turno</t>
+  </si>
+  <si>
+    <t>2.1.1</t>
+  </si>
+  <si>
+    <t>3.1.1</t>
+  </si>
+  <si>
+    <t>3.1.2</t>
+  </si>
+  <si>
+    <t>3.1.3</t>
+  </si>
+  <si>
+    <t>3.1.4</t>
+  </si>
+  <si>
+    <t>4.1.1</t>
+  </si>
+  <si>
+    <t>5.1.1</t>
+  </si>
+  <si>
+    <t> En este caso de uso el administrador procede a bloquear una o varios horas en la agenda del tecnico</t>
+  </si>
+  <si>
+    <t>El tecnico debe haber solicitado un persimo de bloqueo de esas horas de su agendan y en que fecha desde su perfil</t>
+  </si>
+  <si>
+    <t>En la vista del perfil del tecnico, hace clic en el boton gestionar agenda</t>
+  </si>
+  <si>
+    <t>Se mostrara una vista con la agenda de la semana del tecnico</t>
+  </si>
+  <si>
+    <t>El Administrador debera marcar el checkbox en el dia o dias de la semana y la hora que desee bloquear</t>
+  </si>
+  <si>
+    <t>Se da clic en aceptar y guardar</t>
+  </si>
+  <si>
+    <t> Bloquear/Activar hora en horario</t>
+  </si>
+  <si>
+    <t>El Administrador debera marcar el checkbox del dia o dias de la semana y la hora que esten bloqueados y desee desbloquear</t>
+  </si>
+  <si>
+    <t>Se actualiza el horario en la agenda del tecnico</t>
   </si>
 </sst>
 </file>
@@ -723,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F274FABB-DF5C-4F9E-B98F-F8DC866DADF5}">
-  <dimension ref="B2:D104"/>
+  <dimension ref="B2:D125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C125" sqref="C125:D125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,8 +907,8 @@
     </row>
     <row r="15" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
-      <c r="C15" s="4">
-        <v>2.2000000000000002</v>
+      <c r="C15" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>21</v>
@@ -1005,16 +1053,12 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="9"/>
-      <c r="C33" s="4">
-        <v>5</v>
-      </c>
+      <c r="C33" s="4"/>
       <c r="D33" s="5"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="10"/>
-      <c r="C34" s="4">
-        <v>6</v>
-      </c>
+      <c r="C34" s="4"/>
       <c r="D34" s="5"/>
     </row>
     <row r="35" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1030,8 +1074,8 @@
     </row>
     <row r="36" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="9"/>
-      <c r="C36" s="4">
-        <v>3.2</v>
+      <c r="C36" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>34</v>
@@ -1039,8 +1083,8 @@
     </row>
     <row r="37" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="9"/>
-      <c r="C37" s="4">
-        <v>3.3</v>
+      <c r="C37" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>35</v>
@@ -1048,8 +1092,8 @@
     </row>
     <row r="38" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="9"/>
-      <c r="C38" s="4">
-        <v>3.4</v>
+      <c r="C38" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>36</v>
@@ -1057,8 +1101,8 @@
     </row>
     <row r="39" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" s="9"/>
-      <c r="C39" s="4">
-        <v>3.5</v>
+      <c r="C39" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>37</v>
@@ -1066,9 +1110,7 @@
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="10"/>
-      <c r="C40" s="4">
-        <v>6</v>
-      </c>
+      <c r="C40" s="4"/>
       <c r="D40" s="5" t="s">
         <v>23</v>
       </c>
@@ -1210,8 +1252,8 @@
     </row>
     <row r="57" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B57" s="9"/>
-      <c r="C57" s="4">
-        <v>4.2</v>
+      <c r="C57" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>50</v>
@@ -1228,8 +1270,8 @@
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="9"/>
-      <c r="C59" s="4">
-        <v>5.2</v>
+      <c r="C59" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>47</v>
@@ -1564,8 +1606,205 @@
       </c>
       <c r="D104" s="12"/>
     </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B107" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D107" s="14"/>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B108" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D108" s="14"/>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B109" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109" s="14"/>
+    </row>
+    <row r="110" spans="2:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D110" s="12"/>
+    </row>
+    <row r="111" spans="2:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D111" s="12"/>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B112" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B113" s="9"/>
+      <c r="C113" s="4">
+        <v>1</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B114" s="9"/>
+      <c r="C114" s="4">
+        <v>2</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B115" s="9"/>
+      <c r="C115" s="4">
+        <v>3</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="9"/>
+      <c r="C116" s="4">
+        <v>4</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B117" s="9"/>
+      <c r="C117" s="4">
+        <v>5</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="10"/>
+      <c r="C118" s="4">
+        <v>6</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B119" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C119" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B120" s="9"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="5"/>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B121" s="9"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="5"/>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B122" s="9"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="5"/>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B123" s="9"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="5"/>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B124" s="10"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D125" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="48">
+    <mergeCell ref="B112:B118"/>
+    <mergeCell ref="B119:B124"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="B49:B55"/>
+    <mergeCell ref="B56:B61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B7:B13"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B28:B34"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="B70:B76"/>
+    <mergeCell ref="B77:B82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
     <mergeCell ref="B91:B97"/>
     <mergeCell ref="B98:B103"/>
     <mergeCell ref="C104:D104"/>
@@ -1574,38 +1813,6 @@
     <mergeCell ref="C88:D88"/>
     <mergeCell ref="C89:D89"/>
     <mergeCell ref="C90:D90"/>
-    <mergeCell ref="B70:B76"/>
-    <mergeCell ref="B77:B82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="B28:B34"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B7:B13"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B49:B55"/>
-    <mergeCell ref="B56:B61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
